--- a/Instances/K0011153_NonStationary_b2_fe25_en_rk25_ll2_l20_HTrue_c0.xlsx
+++ b/Instances/K0011153_NonStationary_b2_fe25_en_rk25_ll2_l20_HTrue_c0.xlsx
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>16.48546257019043</v>
+        <v>16.19144873959678</v>
       </c>
       <c r="I2" t="n">
         <v>200</v>
@@ -1018,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1839,41 +1839,6 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>112</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1888,7 +1853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,34 +2003,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2073,7 +2038,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>17.4375</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2108,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.25</v>
+        <v>22.5</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2143,7 +2108,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.03125</v>
+        <v>23.37890625</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2178,7 +2143,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.1328125</v>
+        <v>26.396484375</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2213,7 +2178,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.404296875</v>
+        <v>24.725830078125</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2248,7 +2213,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.97265625</v>
+        <v>26.993408203125</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2283,7 +2248,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.24310302734375</v>
+        <v>22.99859619140625</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2318,7 +2283,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.74830627441406</v>
+        <v>22.49965667724609</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2353,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24.99961853027344</v>
+        <v>21.49991798400879</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2388,7 +2353,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.49992179870605</v>
+        <v>18.24998259544373</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2415,41 +2380,6 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>27.99997329711914</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
         <v>0</v>
       </c>
     </row>
